--- a/Задачи пнр.xlsx
+++ b/Задачи пнр.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\savchuk\Google Диск\Проекты\МАЗ\пнр закрытие\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\test2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C749ECC-5730-4558-8843-4C72015B523A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9B3B6F-9663-4AF0-967D-667829D0A7B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{FEC0868B-2FC3-4291-91E3-693C23B6D889}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="178">
   <si>
     <t>Додаткові дані</t>
   </si>
@@ -190,9 +190,6 @@
     <t> 10.61.20.11/24</t>
   </si>
   <si>
-    <t>DCSERVER2</t>
-  </si>
-  <si>
     <t>Додавання серверу як контролер домену до домену</t>
   </si>
   <si>
@@ -478,9 +475,6 @@
     <t>Створення хост правил</t>
   </si>
   <si>
-    <t>dc</t>
-  </si>
-  <si>
     <t>fids dc</t>
   </si>
   <si>
@@ -520,9 +514,6 @@
     <t>ftp://10.61.20.31/vmware</t>
   </si>
   <si>
-    <t>Створення файлу інсталяції антивіруса на ресурсах домену</t>
-  </si>
-  <si>
     <t>Синхронизація з доменом OZH.LOCAL комп'ютерів</t>
   </si>
   <si>
@@ -563,6 +554,12 @@
   </si>
   <si>
     <t>порт SMTP — 587</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>sdfdasf</t>
   </si>
 </sst>
 </file>
@@ -1007,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7349006-43F1-4CF8-89F7-2C75A0BA06A0}">
-  <dimension ref="A1:C167"/>
+  <dimension ref="A1:C166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155:B167"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,103 +1162,103 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C29" s="6"/>
     </row>
@@ -1269,182 +1266,180 @@
       <c r="A30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="B30" s="2"/>
       <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C32" s="6"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C33" s="6"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>68</v>
-      </c>
+      <c r="B35" s="6"/>
       <c r="C35" s="6"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="C39" s="6"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="C40" s="6"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" s="6"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="C42" s="6"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C43" s="6"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="B44" s="6"/>
       <c r="C44" s="6"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="C48" s="6"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="6"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" s="6"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
@@ -1454,36 +1449,38 @@
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B54" s="2" t="s">
         <v>88</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B55" s="14" t="s">
         <v>90</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C55" s="2"/>
     </row>
@@ -1491,52 +1488,50 @@
       <c r="A56" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B61" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="B61" s="2"/>
       <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1569,133 +1564,109 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="A71" s="1"/>
+      <c r="B71" s="2"/>
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A72" s="1"/>
+      <c r="B72" s="2"/>
       <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="A73" s="1"/>
+      <c r="B73" s="2"/>
       <c r="C73" s="2"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="A74" s="1"/>
+      <c r="B74" s="2"/>
       <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B76" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="B76" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B77" s="1" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>123</v>
       </c>
+      <c r="B77" s="2"/>
       <c r="C77" s="2"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B78" s="2"/>
       <c r="C78" s="2"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C79" s="2"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B80" s="2" t="s">
         <v>88</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="C80" s="2"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B81" s="14" t="s">
         <v>90</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C81" s="2"/>
     </row>
@@ -1703,52 +1674,50 @@
       <c r="A82" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B82" s="2"/>
       <c r="C82" s="2"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B83" s="2"/>
+      <c r="B83" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="C83" s="2"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C84" s="2"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="C85" s="2"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B87" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="B87" s="2"/>
       <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1781,14 +1750,14 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -1802,7 +1771,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -1811,15 +1780,17 @@
       <c r="A96" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B96" s="2"/>
+      <c r="B96" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="C96" s="2"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C97" s="2"/>
     </row>
@@ -1828,7 +1799,7 @@
         <v>112</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C98" s="2"/>
     </row>
@@ -1837,77 +1808,77 @@
         <v>113</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C99" s="2"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C100" s="2"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="C101" s="2"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>158</v>
+        <v>121</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C102" s="2"/>
     </row>
-    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>127</v>
-      </c>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B103" s="2"/>
       <c r="C103" s="2"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B104" s="2"/>
       <c r="C104" s="2"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="C105" s="2"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B106" s="2" t="s">
         <v>88</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="C106" s="2"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B107" s="14" t="s">
         <v>90</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C107" s="2"/>
     </row>
@@ -1915,21 +1886,21 @@
       <c r="A108" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B108" s="2"/>
       <c r="C108" s="2"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B109" s="2"/>
+      <c r="B109" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="C109" s="2"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>131</v>
@@ -1938,29 +1909,27 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="C111" s="2"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C112" s="2"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B113" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="B113" s="2"/>
       <c r="C113" s="2"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -1993,14 +1962,14 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2014,7 +1983,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2023,15 +1992,17 @@
       <c r="A122" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B122" s="2"/>
+      <c r="B122" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="C122" s="2"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C123" s="2"/>
     </row>
@@ -2040,7 +2011,7 @@
         <v>112</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C124" s="2"/>
     </row>
@@ -2049,120 +2020,120 @@
         <v>113</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C125" s="2"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C126" s="2"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="C127" s="2"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>159</v>
+        <v>121</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="C128" s="2"/>
     </row>
-    <row r="129" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B129" s="1" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
         <v>133</v>
       </c>
+      <c r="B129" s="2"/>
       <c r="C129" s="2"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B130" s="2"/>
       <c r="C130" s="2"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B131" s="2" t="s">
         <v>135</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="C131" s="2"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B132" s="14" t="s">
         <v>90</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C132" s="2"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="C133" s="2"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C134" s="2"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B135" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="B135" s="2"/>
       <c r="C135" s="2"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B136" s="2"/>
+      <c r="B136" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="C136" s="2"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C137" s="2"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C138" s="2"/>
     </row>
@@ -2171,47 +2142,47 @@
         <v>146</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C139" s="2"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B140" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="B140" s="2"/>
       <c r="C140" s="2"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B141" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="C141" s="2"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C142" s="2"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C143" s="2"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>155</v>
@@ -2220,10 +2191,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C145" s="2"/>
     </row>
@@ -2236,124 +2207,115 @@
       </c>
       <c r="C146" s="2"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C147" s="2"/>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A155" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B156" s="2"/>
+      <c r="A156" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="C156" s="2"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C157" s="2"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C158" s="2"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>170</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B159" s="2"/>
       <c r="C159" s="2"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B160" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>168</v>
+      </c>
       <c r="C160" s="2"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B161" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B161" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C161" s="2"/>
+    </row>
+    <row r="162" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162" s="6"/>
+      <c r="B162" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C161" s="2"/>
-    </row>
-    <row r="162" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B162" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C162" s="2"/>
-    </row>
-    <row r="163" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C162" s="6"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C163" s="6"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C164" s="6"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="15" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C165" s="6"/>
     </row>
-    <row r="166" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C166" s="6"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="6"/>
-      <c r="B167" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C167" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B34" r:id="rId1" xr:uid="{BE7CC810-CBB8-48B8-A9C9-4E4A42F5D356}"/>
-    <hyperlink ref="B161" r:id="rId2" xr:uid="{41F84D8A-85EF-444D-A08F-B37A8084C589}"/>
+    <hyperlink ref="B33" r:id="rId1" xr:uid="{BE7CC810-CBB8-48B8-A9C9-4E4A42F5D356}"/>
+    <hyperlink ref="B160" r:id="rId2" xr:uid="{41F84D8A-85EF-444D-A08F-B37A8084C589}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
